--- a/biology/Botanique/Festival_des_tulipes/Festival_des_tulipes.xlsx
+++ b/biology/Botanique/Festival_des_tulipes/Festival_des_tulipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les festivals de tulipes ont lieu dans plusieurs villes du monde, principalement en Amérique du Nord, généralement dans des villes à l'héritage néerlandais comme Albany (New York), Ottawa (Ontario), Gatineau (Québec), Montréal (Québec), Holland (Michigan), Lehi (Utah), Orange City (Iowa), Pella (Iowa), Mount Vernon (Washington), Woodburn (Oregon) et dans d'autres pays comme la Nouvelle-Zélande, l'Australie[1], l'Inde[2] ou encore l'Angleterre.
-Les tulipes sont considérées comme un signe avant-coureur du printemps[3], et un festival des tulipes permet aux résidents de les voir sous leur meilleur jour. Les festivals sont également des attractions touristiques populaires. Certaines années, le pic de floraison des tulipes ne coïncide pas avec les dates des festivals, souvent en raison des conditions climatiques[4]. Pendant la pandémie de Covid-19, la majorité des festivals n'ont pas eu lieu, ou du moins avec très peu de touristes[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les festivals de tulipes ont lieu dans plusieurs villes du monde, principalement en Amérique du Nord, généralement dans des villes à l'héritage néerlandais comme Albany (New York), Ottawa (Ontario), Gatineau (Québec), Montréal (Québec), Holland (Michigan), Lehi (Utah), Orange City (Iowa), Pella (Iowa), Mount Vernon (Washington), Woodburn (Oregon) et dans d'autres pays comme la Nouvelle-Zélande, l'Australie, l'Inde ou encore l'Angleterre.
+Les tulipes sont considérées comme un signe avant-coureur du printemps, et un festival des tulipes permet aux résidents de les voir sous leur meilleur jour. Les festivals sont également des attractions touristiques populaires. Certaines années, le pic de floraison des tulipes ne coïncide pas avec les dates des festivals, souvent en raison des conditions climatiques. Pendant la pandémie de Covid-19, la majorité des festivals n'ont pas eu lieu, ou du moins avec très peu de touristes,.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Asie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Srinagar, capitale de Jammu-et-Cachemire en Inde, organise son Festival des tulipes au mois d'avril dans le jardin à tulipes du mémorial d'Indira Gandhi, jardin d'une superficie de 30 hectares sur les rives du célèbre lac Dhal. Il est considéré comme le plus grand jardin de tulipes d'Asie[7].
-Tonami, dans la préfecture de Toyama au Japon, organise un festival des tulipes avec plus de 2,5 millions de tulipes dans plus de 600 variétés. Il a lieu de fin avril à début mai, est connu sous le nom de "Fête des tulipes de Tonami" et est situé dans le Parc des tulipes de Tonami[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Srinagar, capitale de Jammu-et-Cachemire en Inde, organise son Festival des tulipes au mois d'avril dans le jardin à tulipes du mémorial d'Indira Gandhi, jardin d'une superficie de 30 hectares sur les rives du célèbre lac Dhal. Il est considéré comme le plus grand jardin de tulipes d'Asie.
+Tonami, dans la préfecture de Toyama au Japon, organise un festival des tulipes avec plus de 2,5 millions de tulipes dans plus de 600 variétés. Il a lieu de fin avril à début mai, est connu sous le nom de "Fête des tulipes de Tonami" et est situé dans le Parc des tulipes de Tonami.</t>
         </is>
       </c>
     </row>
@@ -545,14 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>France
-Le Festival des tulipes du château de Vendeuvre, dans le Calvados, a lieu chaque année en avril[9].
-Royaume-Uni
-Spalding (Lincolnshire, Royaume-Uni) organisait une parade des tulipes chaque année. Elle avait lieu le premier samedi de mai des années 1920 jusqu'en 2013. À son apogée, c'était une attraction touristique majeure, comprenant une procession de chars sur différents thèmes, chacun décoré de pétales de tulipes, un sous-produit de l'industrie des bulbes. Les tulipes ne sont plus cultivées commercialement dans cette partie du Lincolnshire[10].
-Pays-Bas
-La Journée nationale néerlandaise de la Tulipe, à Amsterdam aux Pays-Bas, et la fête qui y est liée, a lieu chaque année en janvier[11].
-Turquie
-Le Festival des tulipes d'Istanbul, la capitale de la Turquie, a lieu chaque année en avril[12].</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Festival des tulipes du château de Vendeuvre, dans le Calvados, a lieu chaque année en avril.</t>
         </is>
       </c>
     </row>
@@ -577,28 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Amérique du Nord</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Canada
-Le Festival canadien des tulipes, qui est reconnu pour être le plus grand festival de tulipes au monde, est un événement majeur organisé chaque année en mai à Ottawa (Ontario, Canada)[13]. Pendant la Seconde Guerre mondiale, la famille royale néerlandaise s'est réfugiée au Canada. La princesse Margriet des Pays-Bas est née à l'Hôpital d'Ottawa en 1943 et le gouvernement canadien a déclaré que ce territoire était extraterritorial. Cela a été fait pour s'assurer que la princesse aurait uniquement la nationalité néerlandaise. Chaque année depuis, la reine Juliana - et la famille royale après sa mort - ont envoyé des bulbes de tulipes pour le festival. Le festival a débuté en 1953[14].
-États-Unis
-Les festivals de tulipes sont organisés en l'honneur des Néerlandais, qui, en déménageant, ont apporté des bulbes de tulipes (alors très chères) et leurs traditions aux Amériques[15].
-Est des États-Unis
-Le Festival des tulipes d’Albany, dans l'Etat de New York, est situé dans le Washington Park, à Albany. Chaque année, cet événement traditionnel célèbre le printemps avec des milliers de tulipes qui fleurissent dans une grande diversité de couleurs et de variétés. Des milliers de personnes, locaux et de tous horizons, viennent au festival en mai pour célébrer le riche héritage néerlandais d'Albany[16].
-Centre des États-Unis
-A Belle Plaine, dans le Kansas, où se trouve le Bartlett Arboretum[17], organise son festival des tulipes le troisième week-end d'avril depuis 1986. Outre les tulipes, le festival propose aussi des collections d'art, des expositions d'artisans, des concerts, un carnaval et d'autres divertissements et jeux[18]. Belle Plaine était autrefois célèbre pour être l'endroit des Etats-Unis avec la plus grande concentration de tulipes.
-Le festival des jours néerlandais de Fulton, dans l'Illinois, a lieu le premier week-end de chaque mois de mai. Il a été célébré pour la première fois comme un "authentique dîner hollandais" en 1974 par l'école chrétienne locale[19].
-A Orange City, le festival des tulipes de l'Iowa, est célébré chaque année le 3ème week-end de mai depuis 1936 Il est cher aux habitants d'Orange City avec un jardin de tulipes, un spectacle en soirée (pièce de théâtre de Broadway), des défilés en après-midi et en soirée et des danses de rue pour petits et grands. Le festival commence le mercredi pour les locaux et se poursuit jusqu'à samedi, attirant plus de 150 000 personnes[20].
-A Pella, Iowa, le festival des tulipes, également célébré début mai, a débuté en 1935 pour célébrer le patrimoine de la ville. Il s'agit d'un événement de trois jours qui comprend des défilés de lavage de rue ("street washing" en anglais), des danseurs en sabots costumés, des démonstrations de sculpture sur sabots, des vendeurs de rue vendant des poffertjes et un orgue de rue hollandais traditionnel[21],[22].
-Le festival des tulipes de Holland dans le Michigan a lieu début mai[23]. C'est est le plus grand festival de tulipes des États-Unis, avec plus de 4,5 millions de tulipes et plus de 600 000 visiteurs chaque année[24].
-Ouest des États-Unis
-Thanksgiving Point à Lehi (Utah) accueille un festival des tulipes en avril et en mai. Le festival de trois week-ends regroupe des jonquilles et des tulipes, et offre des visites de jardins, des spectacles et des activités : du samedi au dimanche, le festival propose de la musique, de la danse et de la nourriture hollandaises[25].
-Le festival des jours hollandais de Lynden (État de Washington) a lieu le premier week-end de mai. Y est célébrée la tradition hollandaise, avec des chansons et danses traditionnelles, ainsi que des marchés néerlandais qui proposent des produits traditionnels[26],[27].
-Le festival des tulipes de la vallée du Skagit, près de Seattle (Etat de Washington) a lieu annuellement en avril depuis 1984. Avec des dizaines de champs de tulipes et de jonquilles ainsi que des jardins d'exposition, des boutiques de cadeaux et des activités touristiques, ce festival attire des visiteurs de tous âges[28],[29].
-La ville de Woodburn dans l'Oregon, organise chaque année son festival Wooden Shoe des tulipes depuis mars 1986[30].</t>
+          <t>Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Spalding (Lincolnshire, Royaume-Uni) organisait une parade des tulipes chaque année. Elle avait lieu le premier samedi de mai des années 1920 jusqu'en 2013. À son apogée, c'était une attraction touristique majeure, comprenant une procession de chars sur différents thèmes, chacun décoré de pétales de tulipes, un sous-produit de l'industrie des bulbes. Les tulipes ne sont plus cultivées commercialement dans cette partie du Lincolnshire.</t>
         </is>
       </c>
     </row>
@@ -623,16 +626,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Océanie</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nouvelle-Zélande
-Festival des tulipes de Wellington, la capitale néo-zélandaise est organisé chaque printemps depuis 1944[31].
-Australie
-Le festival des tulipes de Bowral (Nouvelle-Galles du Sud) est organisé chaque printemps depuis 1960 dans les Corbett Gardens[32].
-Le festival des tulipes de Tesselaar à Silvan (Victoria) a lieu chaque année de septembre à octobre depuis 1954[33].</t>
+          <t>Pays-Bas</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Journée nationale néerlandaise de la Tulipe, à Amsterdam aux Pays-Bas, et la fête qui y est liée, a lieu chaque année en janvier.</t>
         </is>
       </c>
     </row>
@@ -657,10 +662,321 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Turquie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Festival des tulipes d'Istanbul, la capitale de la Turquie, a lieu chaque année en avril.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Festival_des_tulipes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_des_tulipes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Festival canadien des tulipes, qui est reconnu pour être le plus grand festival de tulipes au monde, est un événement majeur organisé chaque année en mai à Ottawa (Ontario, Canada). Pendant la Seconde Guerre mondiale, la famille royale néerlandaise s'est réfugiée au Canada. La princesse Margriet des Pays-Bas est née à l'Hôpital d'Ottawa en 1943 et le gouvernement canadien a déclaré que ce territoire était extraterritorial. Cela a été fait pour s'assurer que la princesse aurait uniquement la nationalité néerlandaise. Chaque année depuis, la reine Juliana - et la famille royale après sa mort - ont envoyé des bulbes de tulipes pour le festival. Le festival a débuté en 1953.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Festival_des_tulipes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_des_tulipes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les festivals de tulipes sont organisés en l'honneur des Néerlandais, qui, en déménageant, ont apporté des bulbes de tulipes (alors très chères) et leurs traditions aux Amériques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Festival_des_tulipes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_des_tulipes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Est des États-Unis</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le Festival des tulipes d’Albany, dans l'Etat de New York, est situé dans le Washington Park, à Albany. Chaque année, cet événement traditionnel célèbre le printemps avec des milliers de tulipes qui fleurissent dans une grande diversité de couleurs et de variétés. Des milliers de personnes, locaux et de tous horizons, viennent au festival en mai pour célébrer le riche héritage néerlandais d'Albany.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Festival_des_tulipes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_des_tulipes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Centre des États-Unis</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A Belle Plaine, dans le Kansas, où se trouve le Bartlett Arboretum, organise son festival des tulipes le troisième week-end d'avril depuis 1986. Outre les tulipes, le festival propose aussi des collections d'art, des expositions d'artisans, des concerts, un carnaval et d'autres divertissements et jeux. Belle Plaine était autrefois célèbre pour être l'endroit des Etats-Unis avec la plus grande concentration de tulipes.
+Le festival des jours néerlandais de Fulton, dans l'Illinois, a lieu le premier week-end de chaque mois de mai. Il a été célébré pour la première fois comme un "authentique dîner hollandais" en 1974 par l'école chrétienne locale.
+A Orange City, le festival des tulipes de l'Iowa, est célébré chaque année le 3ème week-end de mai depuis 1936 Il est cher aux habitants d'Orange City avec un jardin de tulipes, un spectacle en soirée (pièce de théâtre de Broadway), des défilés en après-midi et en soirée et des danses de rue pour petits et grands. Le festival commence le mercredi pour les locaux et se poursuit jusqu'à samedi, attirant plus de 150 000 personnes.
+A Pella, Iowa, le festival des tulipes, également célébré début mai, a débuté en 1935 pour célébrer le patrimoine de la ville. Il s'agit d'un événement de trois jours qui comprend des défilés de lavage de rue ("street washing" en anglais), des danseurs en sabots costumés, des démonstrations de sculpture sur sabots, des vendeurs de rue vendant des poffertjes et un orgue de rue hollandais traditionnel,.
+Le festival des tulipes de Holland dans le Michigan a lieu début mai. C'est est le plus grand festival de tulipes des États-Unis, avec plus de 4,5 millions de tulipes et plus de 600 000 visiteurs chaque année.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Festival_des_tulipes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_des_tulipes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Ouest des États-Unis</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Thanksgiving Point à Lehi (Utah) accueille un festival des tulipes en avril et en mai. Le festival de trois week-ends regroupe des jonquilles et des tulipes, et offre des visites de jardins, des spectacles et des activités : du samedi au dimanche, le festival propose de la musique, de la danse et de la nourriture hollandaises.
+Le festival des jours hollandais de Lynden (État de Washington) a lieu le premier week-end de mai. Y est célébrée la tradition hollandaise, avec des chansons et danses traditionnelles, ainsi que des marchés néerlandais qui proposent des produits traditionnels,.
+Le festival des tulipes de la vallée du Skagit, près de Seattle (Etat de Washington) a lieu annuellement en avril depuis 1984. Avec des dizaines de champs de tulipes et de jonquilles ainsi que des jardins d'exposition, des boutiques de cadeaux et des activités touristiques, ce festival attire des visiteurs de tous âges,.
+La ville de Woodburn dans l'Oregon, organise chaque année son festival Wooden Shoe des tulipes depuis mars 1986.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Festival_des_tulipes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_des_tulipes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Océanie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nouvelle-Zélande</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Festival des tulipes de Wellington, la capitale néo-zélandaise est organisé chaque printemps depuis 1944.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Festival_des_tulipes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_des_tulipes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Océanie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Australie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le festival des tulipes de Bowral (Nouvelle-Galles du Sud) est organisé chaque printemps depuis 1960 dans les Corbett Gardens.
+Le festival des tulipes de Tesselaar à Silvan (Victoria) a lieu chaque année de septembre à octobre depuis 1954.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Festival_des_tulipes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_des_tulipes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Photos</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Tulipes au lac Dow pendant le Festival des tulipes d'Ottawa 2005
